--- a/Somewhere Census.xlsx
+++ b/Somewhere Census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\campaigns\fractured-worlds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC372A-8CCD-4F68-A9B2-DCAAB0F8B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA43C7-B4D1-4823-BFC1-9A2F2185176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{206A7769-913C-44FD-A917-4F208E1EA77B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{206A7769-913C-44FD-A917-4F208E1EA77B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="311">
   <si>
     <t>Name</t>
   </si>
@@ -968,6 +968,36 @@
   </si>
   <si>
     <t>Impermanent</t>
+  </si>
+  <si>
+    <t>Audry Livingstone</t>
+  </si>
+  <si>
+    <t>Geoffrey Parker</t>
+  </si>
+  <si>
+    <t>Lance Skinner</t>
+  </si>
+  <si>
+    <t>Robbin Darrow</t>
+  </si>
+  <si>
+    <t>Leon Eastman</t>
+  </si>
+  <si>
+    <t>Helen Miller</t>
+  </si>
+  <si>
+    <t>Noah North</t>
+  </si>
+  <si>
+    <t>Earth Variant</t>
+  </si>
+  <si>
+    <t>Jessie Alvarez</t>
+  </si>
+  <si>
+    <t>Ageless</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,6 +1309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1297,34 +1331,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1356,33 +1367,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1400,135 +1384,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1542,6 +1397,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
@@ -1660,44 +1523,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C79AD4F-347A-433B-B69B-2239CE568E36}" name="Date" displayName="Date" ref="G1:G2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C79AD4F-347A-433B-B69B-2239CE568E36}" name="Date" displayName="Date" ref="G1:G2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="G1:G2" xr:uid="{7C79AD4F-347A-433B-B69B-2239CE568E36}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FC0C9C72-0AD2-412A-9883-0678BA603FC7}" name="Current Date" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{FC0C9C72-0AD2-412A-9883-0678BA603FC7}" name="Current Date" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}" name="Citizens" displayName="Citizens" ref="A3:U70" totalsRowShown="0" headerRowDxfId="38">
-  <autoFilter ref="A3:U70" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}" name="Citizens" displayName="Citizens" ref="A3:U79" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A3:U79" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:U66">
     <sortCondition ref="A3:A66"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{D56AD2A3-ADF7-441D-86F0-24B6605B38B6}" name="Name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0A348E9C-5591-4F05-87AA-846C16358619}" name="Summary" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{9BD26DCA-9592-476C-866C-404345DDA5FF}" name="Alignment" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{D56AD2A3-ADF7-441D-86F0-24B6605B38B6}" name="Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0A348E9C-5591-4F05-87AA-846C16358619}" name="Summary" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9BD26DCA-9592-476C-866C-404345DDA5FF}" name="Alignment" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{D90A0207-A6BA-4248-9D33-5CE1B3930E06}" name="Gender"/>
     <tableColumn id="5" xr3:uid="{DA9E7E6A-E43B-4343-ABCE-74DE10BB3CF6}" name="Species"/>
     <tableColumn id="6" xr3:uid="{9BBB4AFF-B0C9-4C29-89AA-30D4ABC24367}" name="Subspecies"/>
-    <tableColumn id="7" xr3:uid="{802AE6CD-5308-4CC0-8FB2-47C0BACF9217}" name="Life Stage" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{802AE6CD-5308-4CC0-8FB2-47C0BACF9217}" name="Life Stage" dataDxfId="17"/>
     <tableColumn id="8" xr3:uid="{BF8CB6F9-2BE9-48F8-A437-F4EE0ABE0EFC}" name="Age"/>
-    <tableColumn id="9" xr3:uid="{013B9DC2-634F-4F83-8D60-647C8138C87A}" name="Birthday" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{AA93A5BF-EA49-43CD-8882-731DCFE4B797}" name="Threat Level" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{013B9DC2-634F-4F83-8D60-647C8138C87A}" name="Birthday" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{AA93A5BF-EA49-43CD-8882-731DCFE4B797}" name="Threat Level" dataDxfId="15"/>
     <tableColumn id="11" xr3:uid="{80DA4A82-A18A-4B2E-8386-49C467F5D59A}" name="Intelligence Level"/>
     <tableColumn id="12" xr3:uid="{26051B3C-1C10-459F-8459-B819641F1AC8}" name="Description"/>
     <tableColumn id="13" xr3:uid="{83E8AE66-989C-4F54-B45B-03772CBFC496}" name="Occupation"/>
     <tableColumn id="14" xr3:uid="{27C357A9-3635-4EBD-9B4F-6D3CAA742BF0}" name="Workplace"/>
-    <tableColumn id="21" xr3:uid="{BF83F95F-14FA-46D5-A668-CA8EA68290D6}" name="Final Occupation" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{BF83F95F-14FA-46D5-A668-CA8EA68290D6}" name="Final Occupation" dataDxfId="14"/>
     <tableColumn id="15" xr3:uid="{6A7CA146-1F85-4601-87E2-8DF0A64CAFF9}" name="District"/>
-    <tableColumn id="19" xr3:uid="{3729F13B-9FC3-434F-86F5-1410BD4ABB65}" name="Arrived" dataDxfId="30">
+    <tableColumn id="19" xr3:uid="{3729F13B-9FC3-434F-86F5-1410BD4ABB65}" name="Arrived" dataDxfId="13">
       <calculatedColumnFormula array="1">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6696C753-49B6-4433-B924-DCAB364CF9AC}" name="Date of Arrival in Somewhere" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{326576A6-0767-4E88-9D64-593C0DE22D82}" name="Arrival Method" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{25245070-E825-40B5-9122-A22871CEF445}" name="Is Permanent Resident?" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{6696C753-49B6-4433-B924-DCAB364CF9AC}" name="Date of Arrival in Somewhere" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{326576A6-0767-4E88-9D64-593C0DE22D82}" name="Arrival Method" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{25245070-E825-40B5-9122-A22871CEF445}" name="Is Permanent Resident?" dataDxfId="10"/>
     <tableColumn id="17" xr3:uid="{32F713DC-C8CD-4032-955E-BF6116F83F87}" name="World of Origin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1708,10 +1571,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CDE9245-8D82-4A94-933E-AA8A97EF49A1}" name="Districts" displayName="Districts" ref="A1:D11" totalsRowShown="0">
   <autoFilter ref="A1:D11" xr:uid="{4CDE9245-8D82-4A94-933E-AA8A97EF49A1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D21EA25F-DD35-46E9-A7E5-C7AB0A2C9EA7}" name="District ID" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{D21EA25F-DD35-46E9-A7E5-C7AB0A2C9EA7}" name="District ID" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{DFDE24CE-148C-4D5E-8A3B-CDFE5FD79A57}" name="Name"/>
     <tableColumn id="3" xr3:uid="{C06BE63E-5953-4A4A-A317-28BB0F4CBDA6}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{5C77A1E1-BE36-4D09-B8A9-F628F2C1EDD9}" name="Opening Date" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{5C77A1E1-BE36-4D09-B8A9-F628F2C1EDD9}" name="Opening Date" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1729,12 +1592,12 @@
     <tableColumn id="3" xr3:uid="{CC9AA31A-A5F5-4F67-BEBA-91EED14C220D}" name="Category"/>
     <tableColumn id="4" xr3:uid="{BB5AEED9-AE7D-48AC-96C2-64C62C30423F}" name="District"/>
     <tableColumn id="5" xr3:uid="{1B34C988-E5A3-4C54-A8AD-C221872C50B8}" name="Sublocation"/>
-    <tableColumn id="6" xr3:uid="{C43F17A0-C26F-4A05-A9A7-2EB007C075FF}" name="Open Date" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{C8047B29-A828-4B6F-8212-4AFB00B30F9A}" name="IsOpen" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{C43F17A0-C26F-4A05-A9A7-2EB007C075FF}" name="Open Date" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{C8047B29-A828-4B6F-8212-4AFB00B30F9A}" name="IsOpen" dataDxfId="6">
       <calculatedColumnFormula array="1">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{45E8F9EA-029C-44C9-824C-74D5A7078893}" name="Hide from Business List"/>
-    <tableColumn id="9" xr3:uid="{8272C8C0-7397-4E1C-820F-80B90FEA35E7}" name="Employees #" dataDxfId="24">
+    <tableColumn id="9" xr3:uid="{8272C8C0-7397-4E1C-820F-80B90FEA35E7}" name="Employees #" dataDxfId="5">
       <calculatedColumnFormula>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2074,10 +1937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>255</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2088,13 +1951,13 @@
       <c r="A2" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="29">
         <f>B4-B3</f>
         <v>57</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="30">
         <f>COUNTIF(Citizens[Arrived],FALSE)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7">
         <v>36989</v>
@@ -2104,7 +1967,7 @@
       <c r="A3" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="29">
         <f>COUNTIF(Citizens[Is Permanent Resident?],FALSE)</f>
         <v>4</v>
       </c>
@@ -2113,7 +1976,7 @@
       <c r="A4" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="29">
         <f>COUNTIF(Citizens[Arrived],TRUE)</f>
         <v>61</v>
       </c>
@@ -2134,13 +1997,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DF9828-70DC-4E00-A437-C74583D34CC6}">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,6 +2015,7 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
@@ -2169,29 +2033,29 @@
     <row r="1" spans="1:21" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="30" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -2200,11 +2064,11 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -2287,7 +2151,6 @@
       <c r="A4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="33"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>111</v>
@@ -2347,7 +2210,6 @@
       <c r="A5" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="33"/>
       <c r="C5" s="5" t="s">
         <v>151</v>
       </c>
@@ -2367,7 +2229,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="33" t="s">
+      <c r="J5" t="s">
         <v>150</v>
       </c>
       <c r="K5" t="s">
@@ -2404,46 +2266,43 @@
       <c r="A6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="33"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33" t="s">
+      <c r="M6" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" t="s">
         <v>196</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6">
         <v>6</v>
       </c>
-      <c r="Q6" s="33" t="b" cm="1">
+      <c r="Q6" t="b" cm="1">
         <f t="array" ref="Q6">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
         <v>1</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="7">
         <v>36988</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="T6" s="35" t="b">
+      <c r="T6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U6" s="6" t="s">
@@ -2469,6 +2328,9 @@
       <c r="G7" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="H7">
+        <v>64</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" t="s">
         <v>145</v>
@@ -2561,7 +2423,6 @@
       <c r="A9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="33"/>
       <c r="C9" s="5" t="s">
         <v>96</v>
       </c>
@@ -2580,7 +2441,6 @@
       <c r="I9" s="18">
         <v>45635</v>
       </c>
-      <c r="J9" s="33"/>
       <c r="M9" t="s">
         <v>181</v>
       </c>
@@ -2614,7 +2474,6 @@
       <c r="A10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="33"/>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
         <v>111</v>
@@ -2632,7 +2491,6 @@
         <v>36</v>
       </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="33"/>
       <c r="M10" t="s">
         <v>181</v>
       </c>
@@ -2664,7 +2522,6 @@
       <c r="A11" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="33"/>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
         <v>110</v>
@@ -2682,7 +2539,6 @@
         <v>42</v>
       </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="33"/>
       <c r="M11" t="s">
         <v>180</v>
       </c>
@@ -2714,7 +2570,6 @@
       <c r="A12" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="33"/>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>110</v>
@@ -2732,7 +2587,6 @@
         <v>16</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="33"/>
       <c r="M12" t="s">
         <v>259</v>
       </c>
@@ -2764,7 +2618,6 @@
       <c r="A13" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="33"/>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
         <v>110</v>
@@ -2781,7 +2634,6 @@
       <c r="I13" s="18">
         <v>45499</v>
       </c>
-      <c r="J13" s="33"/>
       <c r="M13" t="s">
         <v>230</v>
       </c>
@@ -2822,7 +2674,9 @@
       <c r="E14" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="M14" t="s">
         <v>203</v>
@@ -2920,7 +2774,12 @@
       <c r="E16" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="M16" t="s">
         <v>134</v>
@@ -2955,7 +2814,6 @@
       <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="33"/>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>110</v>
@@ -2969,8 +2827,10 @@
       <c r="G17" s="5" t="s">
         <v>162</v>
       </c>
+      <c r="H17">
+        <v>79</v>
+      </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="33"/>
       <c r="M17" t="s">
         <v>62</v>
       </c>
@@ -3002,7 +2862,6 @@
       <c r="A18" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="33"/>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
         <v>110</v>
@@ -3020,7 +2879,7 @@
         <v>27</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="33" t="s">
+      <c r="J18" t="s">
         <v>150</v>
       </c>
       <c r="K18" t="s">
@@ -3057,7 +2916,6 @@
       <c r="A19" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="33"/>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
         <v>110</v>
@@ -3068,9 +2926,10 @@
       <c r="F19" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="33"/>
       <c r="M19" t="s">
         <v>240</v>
       </c>
@@ -3104,7 +2963,6 @@
       <c r="A20" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="33"/>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
         <v>110</v>
@@ -3115,11 +2973,15 @@
       <c r="F20" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>310</v>
+      </c>
       <c r="I20" s="18">
         <v>45598</v>
       </c>
-      <c r="J20" s="33"/>
       <c r="M20" t="s">
         <v>231</v>
       </c>
@@ -3153,7 +3015,6 @@
       <c r="A21" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="33"/>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
         <v>110</v>
@@ -3168,7 +3029,6 @@
         <v>19</v>
       </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="33"/>
       <c r="M21" t="s">
         <v>51</v>
       </c>
@@ -3200,7 +3060,6 @@
       <c r="A22" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="33"/>
       <c r="C22" s="5" t="s">
         <v>269</v>
       </c>
@@ -3220,7 +3079,7 @@
         <v>37</v>
       </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="33" t="s">
+      <c r="J22" t="s">
         <v>144</v>
       </c>
       <c r="K22" t="s">
@@ -3257,7 +3116,6 @@
       <c r="A23" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B23" s="33"/>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>111</v>
@@ -3268,9 +3126,10 @@
       <c r="F23" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="33"/>
       <c r="M23" t="s">
         <v>236</v>
       </c>
@@ -3302,7 +3161,6 @@
       <c r="A24" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="33"/>
       <c r="C24" s="5" t="s">
         <v>153</v>
       </c>
@@ -3322,7 +3180,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="18"/>
-      <c r="J24" s="33" t="s">
+      <c r="J24" t="s">
         <v>186</v>
       </c>
       <c r="K24" t="s">
@@ -3357,7 +3215,6 @@
       <c r="A25" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="33"/>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>111</v>
@@ -3375,7 +3232,7 @@
         <v>75</v>
       </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="33" t="s">
+      <c r="J25" t="s">
         <v>150</v>
       </c>
       <c r="K25" t="s">
@@ -3412,7 +3269,6 @@
       <c r="A26" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="33"/>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
         <v>110</v>
@@ -3432,7 +3288,6 @@
       <c r="I26" s="18">
         <v>45325</v>
       </c>
-      <c r="J26" s="33"/>
       <c r="O26" s="1"/>
       <c r="P26">
         <v>6</v>
@@ -3458,7 +3313,6 @@
       <c r="A27" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="33"/>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
         <v>111</v>
@@ -3476,7 +3330,6 @@
         <v>15</v>
       </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="33"/>
       <c r="M27" t="s">
         <v>173</v>
       </c>
@@ -3544,7 +3397,6 @@
       <c r="A29" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="33"/>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
         <v>110</v>
@@ -3559,7 +3411,6 @@
         <v>162</v>
       </c>
       <c r="I29" s="18"/>
-      <c r="J29" s="33"/>
       <c r="M29" t="s">
         <v>49</v>
       </c>
@@ -3593,7 +3444,6 @@
       <c r="A30" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="33"/>
       <c r="C30" s="5" t="s">
         <v>151</v>
       </c>
@@ -3613,7 +3463,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="18"/>
-      <c r="J30" s="33" t="s">
+      <c r="J30" t="s">
         <v>145</v>
       </c>
       <c r="K30" t="s">
@@ -3650,7 +3500,6 @@
       <c r="A31" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
         <v>111</v>
@@ -3668,7 +3517,6 @@
         <v>37</v>
       </c>
       <c r="I31" s="18"/>
-      <c r="J31" s="33"/>
       <c r="M31" t="s">
         <v>274</v>
       </c>
@@ -3700,7 +3548,6 @@
       <c r="A32" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="33"/>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>110</v>
@@ -3720,7 +3567,6 @@
       <c r="I32" s="18">
         <v>45579</v>
       </c>
-      <c r="J32" s="33"/>
       <c r="O32" s="1"/>
       <c r="P32">
         <v>6</v>
@@ -3746,7 +3592,6 @@
       <c r="A33" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="33"/>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>111</v>
@@ -3764,7 +3609,7 @@
         <v>40</v>
       </c>
       <c r="I33" s="18"/>
-      <c r="J33" s="33" t="s">
+      <c r="J33" t="s">
         <v>167</v>
       </c>
       <c r="K33" t="s">
@@ -3803,7 +3648,6 @@
       <c r="A34" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="33"/>
       <c r="C34" s="5"/>
       <c r="D34" t="s">
         <v>110</v>
@@ -3820,7 +3664,6 @@
       <c r="I34" s="18">
         <v>31052</v>
       </c>
-      <c r="J34" s="33"/>
       <c r="M34" t="s">
         <v>229</v>
       </c>
@@ -3868,7 +3711,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="18"/>
-      <c r="J35" s="33" t="s">
+      <c r="J35" t="s">
         <v>167</v>
       </c>
       <c r="K35" t="s">
@@ -3907,7 +3750,6 @@
       <c r="A36" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="33"/>
       <c r="C36" s="5"/>
       <c r="D36" t="s">
         <v>110</v>
@@ -3925,7 +3767,6 @@
         <v>36</v>
       </c>
       <c r="I36" s="18"/>
-      <c r="J36" s="33"/>
       <c r="M36" t="s">
         <v>204</v>
       </c>
@@ -3957,7 +3798,6 @@
       <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="33"/>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
         <v>110</v>
@@ -4017,7 +3857,9 @@
       <c r="E38" t="s">
         <v>262</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I38" s="18"/>
       <c r="J38" s="5"/>
       <c r="M38" t="s">
@@ -4043,7 +3885,7 @@
       <c r="T38" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U38" s="33" t="s">
+      <c r="U38" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4102,7 +3944,6 @@
       <c r="T39" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U39" s="33"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -4110,43 +3951,41 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="33" t="s">
+      <c r="D40" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="33"/>
+      <c r="G40" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="I40" s="18"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33" t="s">
+      <c r="M40" t="s">
         <v>136</v>
       </c>
-      <c r="N40" s="33" t="s">
+      <c r="N40" t="s">
         <v>41</v>
       </c>
-      <c r="O40" s="34"/>
-      <c r="P40" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="33" t="b" cm="1">
+      <c r="O40" s="1"/>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b" cm="1">
         <f t="array" ref="Q40">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
         <v>1</v>
       </c>
-      <c r="R40" s="35">
+      <c r="R40" s="7">
         <v>36916</v>
       </c>
-      <c r="S40" s="35" t="s">
+      <c r="S40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="T40" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="U40" s="33" t="s">
+      <c r="T40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4192,7 +4031,7 @@
       <c r="T41" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U41" s="33" t="s">
+      <c r="U41" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4216,6 +4055,9 @@
       <c r="G42" s="5" t="s">
         <v>142</v>
       </c>
+      <c r="H42">
+        <v>19</v>
+      </c>
       <c r="I42" s="18"/>
       <c r="J42" s="5" t="s">
         <v>144</v>
@@ -4248,7 +4090,7 @@
       <c r="T42" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U42" s="33" t="s">
+      <c r="U42" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4300,7 +4142,6 @@
       <c r="T43" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -4355,7 +4196,6 @@
       <c r="T44" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -4426,6 +4266,9 @@
       <c r="G46" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
       <c r="I46" s="18"/>
       <c r="J46" s="5"/>
       <c r="N46" t="s">
@@ -4450,7 +4293,7 @@
       <c r="T46" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U46" s="33" t="s">
+      <c r="U46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4469,7 +4312,9 @@
       <c r="F47" t="s">
         <v>138</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="I47" s="18"/>
       <c r="J47" s="5"/>
       <c r="M47" t="s">
@@ -4497,7 +4342,7 @@
       <c r="T47" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U47" s="33" t="s">
+      <c r="U47" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4516,7 +4361,9 @@
       <c r="F48" t="s">
         <v>213</v>
       </c>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I48" s="18"/>
       <c r="J48" s="5"/>
       <c r="N48" t="s">
@@ -4541,7 +4388,7 @@
       <c r="T48" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U48" s="33" t="s">
+      <c r="U48" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4557,7 +4404,9 @@
       <c r="E49" t="s">
         <v>262</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I49" s="18"/>
       <c r="J49" s="5"/>
       <c r="M49" t="s">
@@ -4583,7 +4432,7 @@
       <c r="T49" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U49" s="33" t="s">
+      <c r="U49" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4602,7 +4451,9 @@
       <c r="F50" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I50" s="18"/>
       <c r="J50" s="5"/>
       <c r="N50" t="s">
@@ -4627,7 +4478,7 @@
       <c r="T50" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U50" s="33" t="s">
+      <c r="U50" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4686,7 +4537,6 @@
       <c r="T51" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U51" s="33"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -4703,7 +4553,12 @@
       <c r="F52" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52">
+        <v>21</v>
+      </c>
       <c r="I52" s="18"/>
       <c r="J52" s="5"/>
       <c r="M52" t="s">
@@ -4731,7 +4586,6 @@
       <c r="T52" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -4830,7 +4684,6 @@
       <c r="T54" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -4879,7 +4732,6 @@
       <c r="T55" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U55" s="33"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
@@ -4893,7 +4745,12 @@
       <c r="E56" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56">
+        <v>499</v>
+      </c>
       <c r="I56" s="18"/>
       <c r="J56" s="5"/>
       <c r="M56" t="s">
@@ -4921,7 +4778,6 @@
       <c r="T56" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U56" s="33"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -4941,6 +4797,9 @@
       <c r="G57" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="H57">
+        <v>4.5</v>
+      </c>
       <c r="I57" s="18">
         <v>45523</v>
       </c>
@@ -4962,7 +4821,7 @@
       <c r="T57" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U57" s="33" t="s">
+      <c r="U57" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4981,7 +4840,9 @@
       <c r="F58" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I58" s="18"/>
       <c r="J58" s="5"/>
       <c r="M58" t="s">
@@ -5006,7 +4867,7 @@
       <c r="T58" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U58" s="33" t="s">
+      <c r="U58" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5065,7 +4926,6 @@
       <c r="T59" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U59" s="33"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
@@ -5082,7 +4942,12 @@
       <c r="F60" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60">
+        <v>34</v>
+      </c>
       <c r="I60" s="18"/>
       <c r="J60" s="5"/>
       <c r="M60" t="s">
@@ -5108,7 +4973,6 @@
       <c r="T60" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
@@ -5168,6 +5032,9 @@
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
+      <c r="D62" t="s">
+        <v>110</v>
+      </c>
       <c r="E62" t="s">
         <v>97</v>
       </c>
@@ -5176,6 +5043,9 @@
       </c>
       <c r="G62" s="5" t="s">
         <v>93</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="5"/>
@@ -5201,7 +5071,7 @@
       <c r="T62" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U62" s="33" t="s">
+      <c r="U62" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5249,7 +5119,7 @@
       <c r="T63" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U63" s="33" t="s">
+      <c r="U63" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5271,6 +5141,9 @@
       <c r="G64" s="5" t="s">
         <v>142</v>
       </c>
+      <c r="H64">
+        <v>23</v>
+      </c>
       <c r="I64" s="18"/>
       <c r="J64" s="5"/>
       <c r="M64" t="s">
@@ -5298,7 +5171,6 @@
       <c r="T64" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U64" s="33"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -5345,7 +5217,7 @@
       <c r="T65" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U65" s="33" t="s">
+      <c r="U65" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5361,7 +5233,9 @@
       <c r="E66" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I66" s="18"/>
       <c r="J66" s="5"/>
       <c r="M66" t="s">
@@ -5389,7 +5263,7 @@
       <c r="T66" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="U66" s="33" t="s">
+      <c r="U66" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5398,7 +5272,7 @@
         <v>286</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="37"/>
+      <c r="C67" s="5"/>
       <c r="D67" t="s">
         <v>111</v>
       </c>
@@ -5419,7 +5293,7 @@
       <c r="O67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q67" s="36" t="b" cm="1">
+      <c r="Q67" t="b" cm="1">
         <f t="array" ref="Q67">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
         <v>1</v>
       </c>
@@ -5441,7 +5315,7 @@
         <v>291</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="37"/>
+      <c r="C68" s="5"/>
       <c r="D68" t="s">
         <v>110</v>
       </c>
@@ -5462,7 +5336,7 @@
       <c r="O68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q68" s="36" t="b" cm="1">
+      <c r="Q68" t="b" cm="1">
         <f t="array" ref="Q68">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
         <v>1</v>
       </c>
@@ -5484,7 +5358,7 @@
         <v>293</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="37"/>
+      <c r="C69" s="5"/>
       <c r="D69" t="s">
         <v>110</v>
       </c>
@@ -5505,7 +5379,7 @@
       <c r="O69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q69" s="36" t="b" cm="1">
+      <c r="Q69" t="b" cm="1">
         <f t="array" ref="Q69">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
         <v>1</v>
       </c>
@@ -5524,7 +5398,7 @@
         <v>294</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="37"/>
+      <c r="C70" s="5"/>
       <c r="D70" t="s">
         <v>110</v>
       </c>
@@ -5548,7 +5422,7 @@
       <c r="O70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q70" s="36" t="b" cm="1">
+      <c r="Q70" t="b" cm="1">
         <f t="array" ref="Q70">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
         <v>1</v>
       </c>
@@ -5564,6 +5438,296 @@
       <c r="U70" t="s">
         <v>297</v>
       </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="5"/>
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71">
+        <v>28</v>
+      </c>
+      <c r="I71" s="18"/>
+      <c r="J71" s="5"/>
+      <c r="O71" s="1"/>
+      <c r="P71" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" t="b" cm="1">
+        <f t="array" ref="Q71">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="5"/>
+      <c r="D72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72">
+        <v>19</v>
+      </c>
+      <c r="I72" s="18"/>
+      <c r="J72" s="5"/>
+      <c r="O72" s="1"/>
+      <c r="P72" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" t="b" cm="1">
+        <f t="array" ref="Q72">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="5"/>
+      <c r="D73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="5"/>
+      <c r="O73" s="1"/>
+      <c r="P73" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" t="b" cm="1">
+        <f t="array" ref="Q73">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="5"/>
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" s="18"/>
+      <c r="J74" s="5"/>
+      <c r="O74" s="1"/>
+      <c r="P74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" t="b" cm="1">
+        <f t="array" ref="Q74">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="5"/>
+      <c r="D75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75">
+        <v>27</v>
+      </c>
+      <c r="I75" s="18"/>
+      <c r="J75" s="5"/>
+      <c r="O75" s="1"/>
+      <c r="P75" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" t="b" cm="1">
+        <f t="array" ref="Q75">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="5"/>
+      <c r="D76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76">
+        <v>23</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="5"/>
+      <c r="O76" s="1"/>
+      <c r="P76" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" t="b" cm="1">
+        <f t="array" ref="Q76">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="5"/>
+      <c r="D77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77">
+        <v>43</v>
+      </c>
+      <c r="I77" s="18"/>
+      <c r="J77" s="5"/>
+      <c r="O77" s="1"/>
+      <c r="Q77" t="b" cm="1">
+        <f t="array" ref="Q77">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="5"/>
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78">
+        <v>26</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="5"/>
+      <c r="O78" s="1"/>
+      <c r="P78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" t="b" cm="1">
+        <f t="array" ref="Q78">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="5"/>
+      <c r="O79" s="1"/>
+      <c r="Q79" t="b" cm="1">
+        <f t="array" ref="Q79">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5572,7 +5736,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N4:N70">
+  <conditionalFormatting sqref="N4:N79">
     <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>AND($G4="Child", $N4="")</formula>
     </cfRule>
@@ -5580,45 +5744,45 @@
       <formula>LEN(TRIM(N4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q70">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="O4:O79">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>NOT($O4="y")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q79">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O70">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>NOT($O4="y")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N70" xr:uid="{5E38E75E-415F-4577-90A7-DBDD8840718C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N79" xr:uid="{5E38E75E-415F-4577-90A7-DBDD8840718C}">
       <formula1>Businesses</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P70" xr:uid="{C0D9F438-BAC2-420A-968E-F03BA472BBCE}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P79" xr:uid="{C0D9F438-BAC2-420A-968E-F03BA472BBCE}">
       <formula1>Dist</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D70" xr:uid="{5662BE4C-A78C-47B6-B9E3-DFDBAAC7B269}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D79" xr:uid="{5662BE4C-A78C-47B6-B9E3-DFDBAAC7B269}">
       <formula1>"f, m"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C70" xr:uid="{126FFE62-3B2D-4FE0-8F16-7A2101893CBE}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C79" xr:uid="{126FFE62-3B2D-4FE0-8F16-7A2101893CBE}">
       <formula1>"LG, NG, CG, LN, N, CN, LE, NE, CE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J70" xr:uid="{ADF2BB71-101D-46C4-BE4F-145502640A0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J79" xr:uid="{ADF2BB71-101D-46C4-BE4F-145502640A0A}">
       <formula1>"very low, low, slightly low, medium, slightly high, high, very high"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K70" xr:uid="{0D308854-B48C-4E72-B456-1E2329341122}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K79" xr:uid="{0D308854-B48C-4E72-B456-1E2329341122}">
       <formula1>"very low, low, average, high, very high"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G70" xr:uid="{3F396D49-C608-4436-B5FE-B57097A069F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G79" xr:uid="{3F396D49-C608-4436-B5FE-B57097A069F1}">
       <formula1>"Child, Young Adult, Adult, Old"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O70" xr:uid="{0DEBB3D4-54EA-4FD0-80AD-E65AD51B7B3F}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O79" xr:uid="{0DEBB3D4-54EA-4FD0-80AD-E65AD51B7B3F}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S70" xr:uid="{E568529C-5B05-4615-A0A6-89ED936B1FAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S79" xr:uid="{E568529C-5B05-4615-A0A6-89ED936B1FAB}">
       <formula1>"appeared, migrated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T70" xr:uid="{77BB72C1-96D2-470F-905B-1CC968FD7BDC}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T79" xr:uid="{77BB72C1-96D2-470F-905B-1CC968FD7BDC}">
       <formula1>"FALSE, TRUE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6684,11 +6848,11 @@
       <c r="F40" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G40" s="36" t="b" cm="1">
+      <c r="G40" t="b" cm="1">
         <f t="array" ref="G40">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
         <v>0</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
@@ -6706,14 +6870,14 @@
       <c r="F41" s="8">
         <v>36892</v>
       </c>
-      <c r="G41" s="36" t="b" cm="1">
+      <c r="G41" t="b" cm="1">
         <f t="array" ref="G41">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
         <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
         <v>4</v>
       </c>

--- a/Somewhere Census.xlsx
+++ b/Somewhere Census.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\campaigns\fractured-worlds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA43C7-B4D1-4823-BFC1-9A2F2185176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AE7FD-4908-4761-8CF9-C95B37CBB334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{206A7769-913C-44FD-A917-4F208E1EA77B}"/>
   </bookViews>
@@ -661,9 +661,6 @@
     <t>Employees #</t>
   </si>
   <si>
-    <t>Deldrig Helcral</t>
-  </si>
-  <si>
     <t>Saélihn Mason</t>
   </si>
   <si>
@@ -998,6 +995,9 @@
   </si>
   <si>
     <t>Ageless</t>
+  </si>
+  <si>
+    <t>Deldric Helcral</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1938,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>100</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="29">
         <f>B4-B3</f>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="29">
         <f>COUNTIF(Citizens[Is Permanent Resident?],FALSE)</f>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="29">
         <f>COUNTIF(Citizens[Arrived],TRUE)</f>
@@ -2000,10 +2000,10 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W66" sqref="W66"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>14</v>
@@ -2138,10 +2138,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="U3" s="23" t="s">
         <v>15</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
@@ -2159,7 +2159,7 @@
         <v>97</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>93</v>
@@ -2178,10 +2178,10 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>86</v>
@@ -2197,7 +2197,7 @@
         <v>36990</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T4" s="9" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>36941</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T5" s="7" t="b">
         <v>1</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I6" s="18"/>
       <c r="M6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N6" t="s">
         <v>196</v>
@@ -2300,13 +2300,13 @@
         <v>36988</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2358,13 +2358,13 @@
         <v>36951</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2410,13 +2410,13 @@
         <v>36951</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T8" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
         <v>36989</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T9" s="7" t="b">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>36934</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T10" s="7" t="b">
         <v>1</v>
@@ -2559,7 +2559,7 @@
         <v>36984</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T11" s="7" t="b">
         <v>1</v>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="I12" s="18"/>
       <c r="M12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N12" t="s">
         <v>56</v>
@@ -2607,7 +2607,7 @@
         <v>36934</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T12" s="7" t="b">
         <v>1</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
@@ -2626,7 +2626,7 @@
         <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>98</v>
@@ -2635,7 +2635,7 @@
         <v>45499</v>
       </c>
       <c r="M13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N13" t="s">
         <v>193</v>
@@ -2654,7 +2654,7 @@
         <v>36989</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T13" s="7" t="b">
         <v>1</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="I14" s="18"/>
       <c r="M14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N14" t="s">
         <v>188</v>
@@ -2698,13 +2698,13 @@
         <v>36919</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T14" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2754,13 +2754,13 @@
         <v>36951</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2801,13 +2801,13 @@
         <v>36986</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T16" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
         <v>138</v>
@@ -2851,7 +2851,7 @@
         <v>36971</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T17" s="7" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>36927</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T18" s="7" t="b">
         <v>1</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="I19" s="18"/>
       <c r="M19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N19" t="s">
         <v>194</v>
@@ -2950,18 +2950,18 @@
         <v>36988</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
@@ -2977,13 +2977,13 @@
         <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I20" s="18">
         <v>45598</v>
       </c>
       <c r="M20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s">
         <v>77</v>
@@ -3002,7 +3002,7 @@
         <v>36987</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T20" s="7" t="b">
         <v>1</v>
@@ -3013,14 +3013,14 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
         <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>142</v>
@@ -3049,7 +3049,7 @@
         <v>36949</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T21" s="7" t="b">
         <v>1</v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
@@ -3070,7 +3070,7 @@
         <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>142</v>
@@ -3086,7 +3086,7 @@
         <v>160</v>
       </c>
       <c r="M22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N22" t="s">
         <v>81</v>
@@ -3105,7 +3105,7 @@
         <v>36993</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T22" s="7" t="b">
         <v>1</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="I23" s="18"/>
       <c r="M23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s">
         <v>195</v>
@@ -3150,7 +3150,7 @@
         <v>36966</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T23" s="7" t="b">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>36983</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T24" s="7" t="b">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>36927</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T25" s="7" t="b">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>36987</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T26" s="7" t="b">
         <v>1</v>
@@ -3350,7 +3350,7 @@
         <v>36982</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T27" s="7" t="b">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>93</v>
@@ -3384,13 +3384,13 @@
         <v>36986</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>36986</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T29" s="7" t="b">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>160</v>
       </c>
       <c r="M30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s">
         <v>39</v>
@@ -3489,7 +3489,7 @@
         <v>36959</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T30" s="7" t="b">
         <v>1</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="I31" s="18"/>
       <c r="M31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s">
         <v>59</v>
@@ -3537,7 +3537,7 @@
         <v>36991</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T31" s="7" t="b">
         <v>1</v>
@@ -3579,7 +3579,7 @@
         <v>36989</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T32" s="7" t="b">
         <v>1</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
@@ -3600,7 +3600,7 @@
         <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>142</v>
@@ -3635,18 +3635,18 @@
         <v>36993</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T33" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" t="s">
@@ -3656,7 +3656,7 @@
         <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>98</v>
@@ -3665,10 +3665,10 @@
         <v>31052</v>
       </c>
       <c r="M34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>165</v>
@@ -3684,7 +3684,7 @@
         <v>36989</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T34" s="7" t="b">
         <v>1</v>
@@ -3737,13 +3737,13 @@
         <v>36986</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T35" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I36" s="18"/>
       <c r="M36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N36" t="s">
         <v>75</v>
@@ -3785,13 +3785,13 @@
         <v>36986</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
       <c r="I37" s="18"/>
       <c r="J37" s="5"/>
       <c r="M37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N37" t="s">
         <v>188</v>
@@ -3836,13 +3836,13 @@
         <v>36986</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T37" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
         <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>98</v>
@@ -3863,7 +3863,7 @@
       <c r="I38" s="18"/>
       <c r="J38" s="5"/>
       <c r="M38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -3880,18 +3880,18 @@
         <v>36986</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T38" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="5" t="s">
@@ -3920,7 +3920,7 @@
         <v>143</v>
       </c>
       <c r="M39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N39" t="s">
         <v>79</v>
@@ -3939,7 +3939,7 @@
         <v>36967</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T39" s="7" t="b">
         <v>1</v>
@@ -3980,18 +3980,18 @@
         <v>36916</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
@@ -4002,7 +4002,7 @@
         <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>142</v>
@@ -4010,7 +4010,7 @@
       <c r="I41" s="18"/>
       <c r="J41" s="5"/>
       <c r="M41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N41" t="s">
         <v>65</v>
@@ -4026,13 +4026,13 @@
         <v>36978</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T41" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>143</v>
       </c>
       <c r="M42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s">
         <v>43</v>
@@ -4085,13 +4085,13 @@
         <v>36951</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T42" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>36950</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T43" s="7" t="b">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>36953</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T44" s="7" t="b">
         <v>1</v>
@@ -4199,11 +4199,11 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
@@ -4212,7 +4212,7 @@
         <v>128</v>
       </c>
       <c r="F45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>162</v>
@@ -4223,7 +4223,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="5"/>
       <c r="M45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N45" t="s">
         <v>81</v>
@@ -4242,7 +4242,7 @@
         <v>36992</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T45" s="7" t="b">
         <v>1</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -4288,7 +4288,7 @@
         <v>36987</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T46" s="7" t="b">
         <v>1</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -4318,7 +4318,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="5"/>
       <c r="M47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N47" t="s">
         <v>194</v>
@@ -4337,18 +4337,18 @@
         <v>36988</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T47" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -4359,7 +4359,7 @@
         <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>93</v>
@@ -4383,7 +4383,7 @@
         <v>36989</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T48" s="7" t="b">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>98</v>
@@ -4410,7 +4410,7 @@
       <c r="I49" s="18"/>
       <c r="J49" s="5"/>
       <c r="M49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N49" t="s">
         <v>66</v>
@@ -4427,18 +4427,18 @@
         <v>36986</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T49" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
@@ -4449,7 +4449,7 @@
         <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>93</v>
@@ -4473,7 +4473,7 @@
         <v>36989</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T50" s="7" t="b">
         <v>1</v>
@@ -4532,7 +4532,7 @@
         <v>36969</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T51" s="7" t="b">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         <v>36927</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T52" s="7" t="b">
         <v>1</v>
@@ -4611,7 +4611,7 @@
       <c r="I53" s="18"/>
       <c r="J53" s="5"/>
       <c r="M53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N53" t="s">
         <v>69</v>
@@ -4630,18 +4630,18 @@
         <v>36986</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T53" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
@@ -4660,7 +4660,7 @@
       <c r="I54" s="18"/>
       <c r="J54" s="5"/>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N54" t="s">
         <v>50</v>
@@ -4679,7 +4679,7 @@
         <v>36957</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T54" s="7" t="b">
         <v>1</v>
@@ -4727,7 +4727,7 @@
         <v>36985</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T55" s="7" t="b">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
@@ -4773,7 +4773,7 @@
         <v>36985</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T56" s="7" t="b">
         <v>1</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
@@ -4792,7 +4792,7 @@
         <v>97</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>93</v>
@@ -4816,7 +4816,7 @@
         <v>36988</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T57" s="7" t="b">
         <v>1</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
@@ -4838,7 +4838,7 @@
         <v>97</v>
       </c>
       <c r="F58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>98</v>
@@ -4862,7 +4862,7 @@
         <v>36987</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T58" s="7" t="b">
         <v>1</v>
@@ -4921,7 +4921,7 @@
         <v>36926</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T59" s="7" t="b">
         <v>1</v>
@@ -4968,7 +4968,7 @@
         <v>36928</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T60" s="7" t="b">
         <v>1</v>
@@ -4998,7 +4998,7 @@
       <c r="I61" s="18"/>
       <c r="J61" s="5"/>
       <c r="M61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N61" t="s">
         <v>75</v>
@@ -5017,18 +5017,18 @@
         <v>36986</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
@@ -5039,7 +5039,7 @@
         <v>97</v>
       </c>
       <c r="F62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>93</v>
@@ -5066,7 +5066,7 @@
         <v>36989</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T62" s="7" t="b">
         <v>1</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
@@ -5088,7 +5088,7 @@
         <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>93</v>
@@ -5114,7 +5114,7 @@
         <v>36989</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T63" s="7" t="b">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>36927</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T64" s="7" t="b">
         <v>1</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
@@ -5185,7 +5185,7 @@
         <v>97</v>
       </c>
       <c r="F65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>98</v>
@@ -5196,7 +5196,7 @@
         <v>177</v>
       </c>
       <c r="N65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>86</v>
@@ -5212,7 +5212,7 @@
         <v>36990</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T65" s="7" t="b">
         <v>1</v>
@@ -5231,7 +5231,7 @@
         <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>93</v>
@@ -5239,10 +5239,10 @@
       <c r="I66" s="18"/>
       <c r="J66" s="5"/>
       <c r="M66" t="s">
+        <v>206</v>
+      </c>
+      <c r="N66" t="s">
         <v>207</v>
-      </c>
-      <c r="N66" t="s">
-        <v>208</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>165</v>
@@ -5258,18 +5258,18 @@
         <v>36986</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="5"/>
@@ -5277,7 +5277,7 @@
         <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>142</v>
@@ -5285,10 +5285,10 @@
       <c r="I67" s="18"/>
       <c r="J67" s="5"/>
       <c r="M67" t="s">
+        <v>287</v>
+      </c>
+      <c r="N67" t="s">
         <v>288</v>
-      </c>
-      <c r="N67" t="s">
-        <v>289</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>86</v>
@@ -5301,18 +5301,18 @@
         <v>36964</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T67" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="5"/>
@@ -5320,7 +5320,7 @@
         <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>98</v>
@@ -5328,10 +5328,10 @@
       <c r="I68" s="18"/>
       <c r="J68" s="5"/>
       <c r="M68" t="s">
+        <v>287</v>
+      </c>
+      <c r="N68" t="s">
         <v>288</v>
-      </c>
-      <c r="N68" t="s">
-        <v>289</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>86</v>
@@ -5344,18 +5344,18 @@
         <v>36964</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T68" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
@@ -5363,7 +5363,7 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>98</v>
@@ -5371,10 +5371,10 @@
       <c r="I69" s="18"/>
       <c r="J69" s="5"/>
       <c r="M69" t="s">
+        <v>287</v>
+      </c>
+      <c r="N69" t="s">
         <v>288</v>
-      </c>
-      <c r="N69" t="s">
-        <v>289</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>86</v>
@@ -5387,7 +5387,7 @@
         <v>36964</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T69" s="7" t="b">
         <v>0</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="5"/>
@@ -5403,10 +5403,10 @@
         <v>110</v>
       </c>
       <c r="E70" t="s">
+        <v>294</v>
+      </c>
+      <c r="F70" t="s">
         <v>295</v>
-      </c>
-      <c r="F70" t="s">
-        <v>296</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>142</v>
@@ -5414,10 +5414,10 @@
       <c r="I70" s="18"/>
       <c r="J70" s="5"/>
       <c r="M70" t="s">
+        <v>287</v>
+      </c>
+      <c r="N70" t="s">
         <v>288</v>
-      </c>
-      <c r="N70" t="s">
-        <v>289</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>86</v>
@@ -5430,18 +5430,18 @@
         <v>36964</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T70" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -5471,12 +5471,12 @@
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -5506,12 +5506,12 @@
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -5541,12 +5541,12 @@
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -5573,12 +5573,12 @@
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -5608,12 +5608,12 @@
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="5"/>
@@ -5643,12 +5643,12 @@
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
       <c r="U76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
@@ -5675,12 +5675,12 @@
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="5"/>
@@ -5710,7 +5710,7 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -5919,10 +5919,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="8">
         <v>36979</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" t="s">
         <v>253</v>
-      </c>
-      <c r="B11" t="s">
-        <v>254</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -6636,7 +6636,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F32" s="8">
         <v>36990</v>
@@ -6664,7 +6664,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F33" s="8">
         <v>36990</v>
@@ -6692,7 +6692,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F34" s="8">
         <v>36990</v>
@@ -6714,7 +6714,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F35" s="8">
         <v>36990</v>
@@ -6742,7 +6742,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F36" s="8">
         <v>36990</v>
@@ -6770,7 +6770,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F37" s="8">
         <v>36990</v>
@@ -6786,10 +6786,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" t="b" cm="1">
@@ -6803,10 +6803,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" t="s">
         <v>247</v>
-      </c>
-      <c r="B39" t="s">
-        <v>248</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -6815,7 +6815,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="8">
         <v>36892</v>
@@ -6831,22 +6831,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" t="s">
         <v>281</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>282</v>
-      </c>
-      <c r="C40" t="s">
-        <v>283</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G40" t="b" cm="1">
         <f t="array" ref="G40">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
@@ -6859,13 +6859,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F41" s="8">
         <v>36892</v>

--- a/Somewhere Census.xlsx
+++ b/Somewhere Census.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\campaigns\fractured-worlds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AE7FD-4908-4761-8CF9-C95B37CBB334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E052B20C-EF66-481D-94BC-9BFB787EDF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{206A7769-913C-44FD-A917-4F208E1EA77B}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="312">
   <si>
     <t>Name</t>
   </si>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t>Deldric Helcral</t>
+  </si>
+  <si>
+    <t>9ish</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1536,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}" name="Citizens" displayName="Citizens" ref="A3:U79" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A3:U79" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}" name="Citizens" displayName="Citizens" ref="A3:U80" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A3:U80" xr:uid="{49AC7A25-6290-4C6E-83CC-C498AF8A8E12}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:U66">
     <sortCondition ref="A3:A66"/>
   </sortState>
@@ -1925,7 +1928,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,14 +1956,14 @@
       </c>
       <c r="B2" s="29">
         <f>B4-B3</f>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C2" s="30">
         <f>COUNTIF(Citizens[Arrived],FALSE)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" s="7">
-        <v>36989</v>
+        <v>37043</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1978,7 +1981,7 @@
       </c>
       <c r="B4" s="29">
         <f>COUNTIF(Citizens[Arrived],TRUE)</f>
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1997,13 +2000,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DF9828-70DC-4E00-A437-C74583D34CC6}">
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2194,7 @@
       </c>
       <c r="Q4" s="3" t="b" cm="1">
         <f t="array" ref="Q4">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="9">
         <v>36990</v>
@@ -3099,7 +3102,7 @@
       </c>
       <c r="Q22" t="b" cm="1">
         <f t="array" ref="Q22">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="7">
         <v>36993</v>
@@ -3192,7 +3195,9 @@
       <c r="N24" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="P24">
         <v>1</v>
       </c>
@@ -3531,7 +3536,7 @@
       </c>
       <c r="Q31" t="b" cm="1">
         <f t="array" ref="Q31">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="7">
         <v>36991</v>
@@ -3629,7 +3634,7 @@
       </c>
       <c r="Q33" t="b" cm="1">
         <f t="array" ref="Q33">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="7">
         <v>36993</v>
@@ -4236,7 +4241,7 @@
       </c>
       <c r="Q45" t="b" cm="1">
         <f t="array" ref="Q45">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="7">
         <v>36992</v>
@@ -5206,7 +5211,7 @@
       </c>
       <c r="Q65" t="b" cm="1">
         <f t="array" ref="Q65">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="7">
         <v>36990</v>
@@ -5236,7 +5241,12 @@
       <c r="G66" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I66" s="18"/>
+      <c r="H66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I66" s="18">
+        <v>46013</v>
+      </c>
       <c r="J66" s="5"/>
       <c r="M66" t="s">
         <v>206</v>
@@ -5717,10 +5727,21 @@
       <c r="A79" s="10"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="5"/>
       <c r="O79" s="1"/>
+      <c r="P79" t="s">
+        <v>25</v>
+      </c>
       <c r="Q79" t="b" cm="1">
         <f t="array" ref="Q79">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
         <v>0</v>
@@ -5728,6 +5749,25 @@
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
+      <c r="U79" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="5"/>
+      <c r="O80" s="1"/>
+      <c r="Q80" t="b" cm="1">
+        <f t="array" ref="Q80">AND(Citizens[[#This Row],[Date of Arrival in Somewhere]]&gt;0, Citizens[[#This Row],[Date of Arrival in Somewhere]]&lt;=Date[])</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5736,7 +5776,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N4:N79">
+  <conditionalFormatting sqref="N4:N80">
     <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>AND($G4="Child", $N4="")</formula>
     </cfRule>
@@ -5744,45 +5784,45 @@
       <formula>LEN(TRIM(N4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O79">
+  <conditionalFormatting sqref="O4:O80">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT($O4="y")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q79">
+  <conditionalFormatting sqref="Q4:Q80">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N79" xr:uid="{5E38E75E-415F-4577-90A7-DBDD8840718C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N80" xr:uid="{5E38E75E-415F-4577-90A7-DBDD8840718C}">
       <formula1>Businesses</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P79" xr:uid="{C0D9F438-BAC2-420A-968E-F03BA472BBCE}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P80" xr:uid="{C0D9F438-BAC2-420A-968E-F03BA472BBCE}">
       <formula1>Dist</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D79" xr:uid="{5662BE4C-A78C-47B6-B9E3-DFDBAAC7B269}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D80" xr:uid="{5662BE4C-A78C-47B6-B9E3-DFDBAAC7B269}">
       <formula1>"f, m"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C79" xr:uid="{126FFE62-3B2D-4FE0-8F16-7A2101893CBE}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C80" xr:uid="{126FFE62-3B2D-4FE0-8F16-7A2101893CBE}">
       <formula1>"LG, NG, CG, LN, N, CN, LE, NE, CE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J79" xr:uid="{ADF2BB71-101D-46C4-BE4F-145502640A0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J80" xr:uid="{ADF2BB71-101D-46C4-BE4F-145502640A0A}">
       <formula1>"very low, low, slightly low, medium, slightly high, high, very high"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K79" xr:uid="{0D308854-B48C-4E72-B456-1E2329341122}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K80" xr:uid="{0D308854-B48C-4E72-B456-1E2329341122}">
       <formula1>"very low, low, average, high, very high"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G79" xr:uid="{3F396D49-C608-4436-B5FE-B57097A069F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G80" xr:uid="{3F396D49-C608-4436-B5FE-B57097A069F1}">
       <formula1>"Child, Young Adult, Adult, Old"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O79" xr:uid="{0DEBB3D4-54EA-4FD0-80AD-E65AD51B7B3F}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O80" xr:uid="{0DEBB3D4-54EA-4FD0-80AD-E65AD51B7B3F}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S79" xr:uid="{E568529C-5B05-4615-A0A6-89ED936B1FAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S80" xr:uid="{E568529C-5B05-4615-A0A6-89ED936B1FAB}">
       <formula1>"appeared, migrated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T79" xr:uid="{77BB72C1-96D2-470F-905B-1CC968FD7BDC}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T80" xr:uid="{77BB72C1-96D2-470F-905B-1CC968FD7BDC}">
       <formula1>"FALSE, TRUE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5950,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81432F13-4FE0-4020-B411-030E66C8AAC6}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6643,7 +6683,7 @@
       </c>
       <c r="G32" t="b" cm="1">
         <f t="array" ref="G32">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
@@ -6671,7 +6711,7 @@
       </c>
       <c r="G33" t="b" cm="1">
         <f t="array" ref="G33">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
@@ -6699,7 +6739,7 @@
       </c>
       <c r="G34" t="b" cm="1">
         <f t="array" ref="G34">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
@@ -6721,7 +6761,7 @@
       </c>
       <c r="G35" t="b" cm="1">
         <f t="array" ref="G35">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
@@ -6749,7 +6789,7 @@
       </c>
       <c r="G36" t="b" cm="1">
         <f t="array" ref="G36">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
@@ -6777,7 +6817,7 @@
       </c>
       <c r="G37" t="b" cm="1">
         <f t="array" ref="G37">AND(POI[[#This Row],[Open Date]]&gt;0, POI[[#This Row],[Open Date]]&lt;=Date[])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f>COUNTIF(Citizens[Workplace],POI[[#This Row],[Name]])</f>
